--- a/NEW/B-MF 2023-10-15/RF.xlsx
+++ b/NEW/B-MF 2023-10-15/RF.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\SMILE_to_Feature\NEW\B-MF 2023-10-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A74E4959-5EBE-4B89-88D7-B648B9F49790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B802370A-37E1-4301-B901-FF6ED35F847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RF!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RF!$A$1:$H$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -628,25 +628,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -660,14 +646,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -980,11 +959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3379,20 +3358,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H92" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>MOD(A1,3)=2</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(A1,3)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(A1,3)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>MOD(A1,3)=0</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>MOD(A1,3)=2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NEW/B-MF 2023-10-15/RF.xlsx
+++ b/NEW/B-MF 2023-10-15/RF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\SMILE_to_Feature\NEW\B-MF 2023-10-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B802370A-37E1-4301-B901-FF6ED35F847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96560E42-87ED-4333-A3A2-E1E9E2E14540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -960,10 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1017,27 +1026,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0168614262374</v>
+        <v>24.878557579972099</v>
       </c>
       <c r="C3">
-        <v>2.8088950094418101</v>
+        <v>6.9552363367315504</v>
       </c>
       <c r="D3">
-        <v>15.794333282698901</v>
+        <v>34.1273943955484</v>
       </c>
       <c r="E3">
-        <v>0.94585730264746304</v>
+        <v>0.67270363507561104</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -1045,77 +1054,77 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>12.1450070975188</v>
+        <v>23.889968104834399</v>
       </c>
       <c r="C4">
-        <v>2.8300565639234598</v>
+        <v>6.6397419089419696</v>
       </c>
       <c r="D4">
-        <v>15.9882297285729</v>
+        <v>31.7146142909357</v>
       </c>
       <c r="E4">
-        <v>0.944519795666527</v>
+        <v>0.69393532908781197</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>12.321877200097999</v>
+        <v>25.632492237192601</v>
       </c>
       <c r="C5">
-        <v>2.8556210228757002</v>
+        <v>7.1644314150200499</v>
       </c>
       <c r="D5">
-        <v>16.1564771477899</v>
+        <v>34.897666881382001</v>
       </c>
       <c r="E5">
-        <v>0.94334599277968201</v>
+        <v>0.65245043045325402</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>12.534897310654801</v>
+        <v>22.038158108758701</v>
       </c>
       <c r="C6">
-        <v>2.8997280270074799</v>
+        <v>6.0847120082625601</v>
       </c>
       <c r="D6">
-        <v>16.5011251075071</v>
+        <v>30.188152338103901</v>
       </c>
       <c r="E6">
-        <v>0.94090313997323205</v>
+        <v>0.74390093976379301</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -1123,48 +1132,48 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B7">
-        <v>13.227025918403299</v>
+        <v>24.00255714447</v>
       </c>
       <c r="C7">
-        <v>3.0848698690087599</v>
+        <v>6.5153461472766496</v>
       </c>
       <c r="D7">
-        <v>17.4856857628073</v>
+        <v>30.576657377609301</v>
       </c>
       <c r="E7">
-        <v>0.93364057244333398</v>
+        <v>0.71550519024390602</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>16.120911116857201</v>
+        <v>23.1254932412388</v>
       </c>
       <c r="C8">
-        <v>3.71774035789401</v>
+        <v>6.3884557323201703</v>
       </c>
       <c r="D8">
-        <v>23.690194478551</v>
+        <v>31.420086588472898</v>
       </c>
       <c r="E8">
-        <v>0.877943005461855</v>
+        <v>0.718266348198772</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1173,24 +1182,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>16.484177092042199</v>
+        <v>25.5855864731884</v>
       </c>
       <c r="C9">
-        <v>3.7920577078877402</v>
+        <v>7.1057020728726199</v>
       </c>
       <c r="D9">
-        <v>24.224564788530898</v>
+        <v>34.284899608586201</v>
       </c>
       <c r="E9">
-        <v>0.87237452050298603</v>
+        <v>0.66967557836237401</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1201,74 +1210,74 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B10">
-        <v>16.650452648985201</v>
+        <v>24.316293881538801</v>
       </c>
       <c r="C10">
-        <v>3.8074501136863601</v>
+        <v>6.6016065860978896</v>
       </c>
       <c r="D10">
-        <v>24.386243739976699</v>
+        <v>30.677639563415401</v>
       </c>
       <c r="E10">
-        <v>0.870665246258992</v>
+        <v>0.71362294737498999</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>26.161729796179198</v>
+      </c>
+      <c r="C11">
+        <v>7.2708111938467397</v>
+      </c>
+      <c r="D11">
+        <v>35.003143327230802</v>
+      </c>
+      <c r="E11">
+        <v>0.65034635327225898</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>66</v>
-      </c>
-      <c r="B11">
-        <v>16.866089051928199</v>
-      </c>
-      <c r="C11">
-        <v>3.8502264798727599</v>
-      </c>
-      <c r="D11">
-        <v>24.6954218430166</v>
-      </c>
-      <c r="E11">
-        <v>0.86736494610015802</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>17.577834397579299</v>
+        <v>21.975956925018099</v>
       </c>
       <c r="C12">
-        <v>4.0505073345093203</v>
+        <v>6.0406847981968301</v>
       </c>
       <c r="D12">
-        <v>25.5106272555225</v>
+        <v>30.063465025272802</v>
       </c>
       <c r="E12">
-        <v>0.85846374688540805</v>
+        <v>0.74601212283043195</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1279,77 +1288,77 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>17.7310184299306</v>
+        <v>25.245916772424</v>
       </c>
       <c r="C13">
-        <v>4.2943857761974398</v>
+        <v>6.8223516156111303</v>
       </c>
       <c r="D13">
-        <v>23.861279937945898</v>
+        <v>31.1438374554352</v>
       </c>
       <c r="E13">
-        <v>0.87642666603408603</v>
+        <v>0.70485285805938802</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>18.042451836753699</v>
+        <v>23.069185632654001</v>
       </c>
       <c r="C14">
-        <v>4.3615672859171601</v>
+        <v>6.3326544672119702</v>
       </c>
       <c r="D14">
-        <v>23.3360781370104</v>
+        <v>31.219334853747299</v>
       </c>
       <c r="E14">
-        <v>0.88180665256089097</v>
+        <v>0.72185499745721604</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>18.646419252642399</v>
+        <v>15.5807522088325</v>
       </c>
       <c r="C15">
-        <v>4.5202121681209597</v>
+        <v>4.10269581400724</v>
       </c>
       <c r="D15">
-        <v>25.213607913900599</v>
+        <v>22.8894476953826</v>
       </c>
       <c r="E15">
-        <v>0.86202281435945005</v>
+        <v>0.85276686950079295</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -1357,48 +1366,48 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>18.717246830804999</v>
+        <v>25.266927270119702</v>
       </c>
       <c r="C16">
-        <v>4.5250944718792798</v>
+        <v>6.9981653551009</v>
       </c>
       <c r="D16">
-        <v>25.004677305780699</v>
+        <v>33.392772857028703</v>
       </c>
       <c r="E16">
-        <v>0.86430001469717399</v>
+        <v>0.66068793624834798</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>18.957026139178101</v>
+        <v>18.316159156820198</v>
       </c>
       <c r="C17">
-        <v>4.54854946298199</v>
+        <v>4.8418465648332401</v>
       </c>
       <c r="D17">
-        <v>24.695176365379002</v>
+        <v>26.112802081701599</v>
       </c>
       <c r="E17">
-        <v>0.867638537717771</v>
+        <v>0.80540533761864097</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1407,27 +1416,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>18.976729337513301</v>
+        <v>25.605271195046299</v>
       </c>
       <c r="C18">
-        <v>4.5848380666171602</v>
+        <v>7.12628292056396</v>
       </c>
       <c r="D18">
-        <v>25.2716815805503</v>
+        <v>34.380376590350998</v>
       </c>
       <c r="E18">
-        <v>0.86138648583660904</v>
+        <v>0.66783323416062701</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -1435,22 +1444,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B19">
-        <v>19.332275634576401</v>
+        <v>25.846271687922599</v>
       </c>
       <c r="C19">
-        <v>4.68176017158879</v>
+        <v>7.0304906988589</v>
       </c>
       <c r="D19">
-        <v>26.073404162571801</v>
+        <v>33.330682582816003</v>
       </c>
       <c r="E19">
-        <v>0.85245219075658696</v>
+        <v>0.66194859180097998</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1459,24 +1468,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>19.541918794942699</v>
+        <v>26.177112678305701</v>
       </c>
       <c r="C20">
-        <v>4.7287519296092002</v>
+        <v>7.2890557906470903</v>
       </c>
       <c r="D20">
-        <v>26.256449631247499</v>
+        <v>35.1287133340834</v>
       </c>
       <c r="E20">
-        <v>0.850373232372307</v>
+        <v>0.64783316384541201</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1485,27 +1494,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>19.925269137881301</v>
+        <v>22.180107789768101</v>
       </c>
       <c r="C21">
-        <v>4.8112522234617003</v>
+        <v>6.3205306435478699</v>
       </c>
       <c r="D21">
-        <v>26.581889805489499</v>
+        <v>30.764843462043402</v>
       </c>
       <c r="E21">
-        <v>0.84664109503763496</v>
+        <v>0.73402284377881399</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -1513,48 +1522,48 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>20.071206862212701</v>
+        <v>25.880531753868901</v>
       </c>
       <c r="C22">
-        <v>4.8566197934247999</v>
+        <v>7.2980893291034796</v>
       </c>
       <c r="D22">
-        <v>26.977023529708699</v>
+        <v>35.345856689367203</v>
       </c>
       <c r="E22">
-        <v>0.84204791840204696</v>
+        <v>0.61983567616282398</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>20.327732514729899</v>
+        <v>22.977133283614801</v>
       </c>
       <c r="C23">
-        <v>4.9302930344579803</v>
+        <v>6.5160352320791004</v>
       </c>
       <c r="D23">
-        <v>27.285692584787601</v>
+        <v>31.556794722060999</v>
       </c>
       <c r="E23">
-        <v>0.83841268823917603</v>
+        <v>0.71580938034879904</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -1563,27 +1572,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>20.4594414898725</v>
+        <v>12.552250863245799</v>
       </c>
       <c r="C24">
-        <v>4.8726454726510404</v>
+        <v>3.2632046451941599</v>
       </c>
       <c r="D24">
-        <v>28.405487548223199</v>
+        <v>17.3226269756892</v>
       </c>
       <c r="E24">
-        <v>0.82451907471616603</v>
+        <v>0.91567382024497401</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -1591,77 +1600,77 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>20.856971799861299</v>
+        <v>25.991615129887901</v>
       </c>
       <c r="C25">
-        <v>4.9725216798692697</v>
+        <v>7.08086374539368</v>
       </c>
       <c r="D25">
-        <v>28.323883149438199</v>
+        <v>33.6255259620185</v>
       </c>
       <c r="E25">
-        <v>0.82552588340626598</v>
+        <v>0.65594132988807596</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>21.2661675849548</v>
+        <v>15.551511344553299</v>
       </c>
       <c r="C26">
-        <v>5.13780144419695</v>
+        <v>4.0764134191691701</v>
       </c>
       <c r="D26">
-        <v>28.399591532220001</v>
+        <v>21.109578356934499</v>
       </c>
       <c r="E26">
-        <v>0.82495025614612105</v>
+        <v>0.87283046389132701</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>18.218405303592998</v>
+      </c>
+      <c r="C27">
+        <v>5.0107305055350597</v>
+      </c>
+      <c r="D27">
+        <v>24.456102295568801</v>
+      </c>
+      <c r="E27">
+        <v>0.83192256815215604</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
         <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>48</v>
-      </c>
-      <c r="B27">
-        <v>21.285800597739499</v>
-      </c>
-      <c r="C27">
-        <v>5.0877018317888201</v>
-      </c>
-      <c r="D27">
-        <v>29.410666571061899</v>
-      </c>
-      <c r="E27">
-        <v>0.81187991982529695</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -1669,77 +1678,77 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B28">
-        <v>21.4566436377524</v>
+        <v>26.100459238079999</v>
       </c>
       <c r="C28">
-        <v>5.11063040046652</v>
+        <v>7.1864369089432598</v>
       </c>
       <c r="D28">
-        <v>29.469371529521599</v>
+        <v>34.0989509532032</v>
       </c>
       <c r="E28">
-        <v>0.811128178738588</v>
+        <v>0.64618489449371896</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>21.485032904774201</v>
+        <v>19.623907597359199</v>
       </c>
       <c r="C29">
-        <v>5.1859640109504399</v>
+        <v>5.3730547275502802</v>
       </c>
       <c r="D29">
-        <v>28.7040196658143</v>
+        <v>25.931997105567799</v>
       </c>
       <c r="E29">
-        <v>0.82117726617377396</v>
+        <v>0.80809075432041999</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>21.637717483550301</v>
+        <v>23.437043376826999</v>
       </c>
       <c r="C30">
-        <v>5.15255356814738</v>
+        <v>6.5450385453648598</v>
       </c>
       <c r="D30">
-        <v>29.6779388245075</v>
+        <v>30.999945396990999</v>
       </c>
       <c r="E30">
-        <v>0.80844526549645301</v>
+        <v>0.72994216806184498</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -1747,77 +1756,77 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>21.7980353360363</v>
+        <v>26.165235259001399</v>
       </c>
       <c r="C31">
-        <v>5.2097566136945899</v>
+        <v>7.2980535862040403</v>
       </c>
       <c r="D31">
-        <v>30.012291640270199</v>
+        <v>34.543510138307497</v>
       </c>
       <c r="E31">
-        <v>0.80410482646037895</v>
+        <v>0.636899149178767</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>24.033030655707599</v>
+      </c>
+      <c r="C32">
+        <v>6.7156009642501902</v>
+      </c>
+      <c r="D32">
+        <v>31.9064949348307</v>
+      </c>
+      <c r="E32">
+        <v>0.70947589972420799</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20.911362075836202</v>
+      </c>
+      <c r="C33">
+        <v>5.8446942057392697</v>
+      </c>
+      <c r="D33">
+        <v>27.802068983330301</v>
+      </c>
+      <c r="E33">
+        <v>0.78278533030533504</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
         <v>13</v>
-      </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>51</v>
-      </c>
-      <c r="B32">
-        <v>21.812105363904099</v>
-      </c>
-      <c r="C32">
-        <v>5.1464233255142497</v>
-      </c>
-      <c r="D32">
-        <v>29.367071401001699</v>
-      </c>
-      <c r="E32">
-        <v>0.81243720394113605</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>54</v>
-      </c>
-      <c r="B33">
-        <v>22.0639993782708</v>
-      </c>
-      <c r="C33">
-        <v>5.2672147566746599</v>
-      </c>
-      <c r="D33">
-        <v>30.1702425328535</v>
-      </c>
-      <c r="E33">
-        <v>0.80203745757565603</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -1825,77 +1834,77 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>26.2197008381256</v>
+      </c>
+      <c r="C34">
+        <v>7.34653698000694</v>
+      </c>
+      <c r="D34">
+        <v>35.211744184957801</v>
+      </c>
+      <c r="E34">
+        <v>0.62271511204196095</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>21.7824751146929</v>
+      </c>
+      <c r="C35">
+        <v>6.0753884356115897</v>
+      </c>
+      <c r="D35">
+        <v>29.0065421520613</v>
+      </c>
+      <c r="E35">
+        <v>0.75988688084232103</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="B34">
-        <v>22.071529244784799</v>
-      </c>
-      <c r="C34">
-        <v>5.3257552651238003</v>
-      </c>
-      <c r="D34">
-        <v>29.344642267473098</v>
-      </c>
-      <c r="E34">
-        <v>0.81310618412186497</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>22.090718913126601</v>
-      </c>
-      <c r="C35">
-        <v>5.3385103764647601</v>
-      </c>
-      <c r="D35">
-        <v>29.3511965061127</v>
-      </c>
-      <c r="E35">
-        <v>0.81302268789406096</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
       <c r="H35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>22.127388649390699</v>
+        <v>23.487355071438099</v>
       </c>
       <c r="C36">
-        <v>5.36168344693953</v>
+        <v>6.5532904551034301</v>
       </c>
       <c r="D36">
-        <v>28.940779982324401</v>
+        <v>31.075266457010699</v>
       </c>
       <c r="E36">
-        <v>0.818215121007836</v>
+        <v>0.72862824615752397</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1903,22 +1912,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B37">
-        <v>22.3589373169442</v>
+        <v>26.324187694683101</v>
       </c>
       <c r="C37">
-        <v>5.34316189769054</v>
+        <v>7.2059365614598301</v>
       </c>
       <c r="D37">
-        <v>30.614328324417698</v>
+        <v>33.117314336026098</v>
       </c>
       <c r="E37">
-        <v>0.796166814820922</v>
+        <v>0.66626284883929898</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -1927,50 +1936,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>22.4206751542856</v>
+        <v>24.0338242247756</v>
       </c>
       <c r="C38">
-        <v>5.3459724209530597</v>
+        <v>6.71193976008413</v>
       </c>
       <c r="D38">
-        <v>30.5627859380769</v>
+        <v>31.9454399564125</v>
       </c>
       <c r="E38">
-        <v>0.79685258552663696</v>
+        <v>0.70876624029031199</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>22.5157438672659</v>
+        <v>23.709496947274701</v>
       </c>
       <c r="C39">
-        <v>5.3772411572229597</v>
+        <v>6.7680143870442597</v>
       </c>
       <c r="D39">
-        <v>30.797221509744801</v>
+        <v>32.049628093655002</v>
       </c>
       <c r="E39">
-        <v>0.79372409868336902</v>
+        <v>0.71134378834649004</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
@@ -1981,48 +1990,48 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>23.942155828402001</v>
+        <v>26.416979771230199</v>
       </c>
       <c r="C40">
-        <v>5.71601219649604</v>
+        <v>7.39785063979153</v>
       </c>
       <c r="D40">
-        <v>32.373318964792702</v>
+        <v>35.300646405783802</v>
       </c>
       <c r="E40">
-        <v>0.77207084916686697</v>
+        <v>0.62080757762357597</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>24.1498470011283</v>
+        <v>24.143703908593501</v>
       </c>
       <c r="C41">
-        <v>5.7544840687891599</v>
+        <v>6.8740293754561002</v>
       </c>
       <c r="D41">
-        <v>32.683699857684701</v>
+        <v>32.735437155693198</v>
       </c>
       <c r="E41">
-        <v>0.76767933228691199</v>
+        <v>0.69418396067167099</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -2031,27 +2040,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>24.206461494177699</v>
+        <v>16.824366533158599</v>
       </c>
       <c r="C42">
-        <v>5.7792498790564801</v>
+        <v>4.68042523951096</v>
       </c>
       <c r="D42">
-        <v>32.115205289222402</v>
+        <v>22.7891460371577</v>
       </c>
       <c r="E42">
-        <v>0.77569093505085196</v>
+        <v>0.85405439475775102</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
@@ -2059,48 +2068,48 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>24.440020841871199</v>
+        <v>26.632748157437199</v>
       </c>
       <c r="C43">
-        <v>5.8295029285133699</v>
+        <v>7.3450465186888501</v>
       </c>
       <c r="D43">
-        <v>32.838801184633503</v>
+        <v>33.852722696465598</v>
       </c>
       <c r="E43">
-        <v>0.76546913317642895</v>
+        <v>0.65127623779924004</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>24.559912642115702</v>
+        <v>18.6578162525044</v>
       </c>
       <c r="C44">
-        <v>5.8581300281745596</v>
+        <v>5.1605129406875001</v>
       </c>
       <c r="D44">
-        <v>32.980866750839098</v>
+        <v>25.330048182480802</v>
       </c>
       <c r="E44">
-        <v>0.76343551257188802</v>
+        <v>0.816896771761353</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -2109,24 +2118,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>25.4355655144922</v>
+        <v>11.3513918331914</v>
       </c>
       <c r="C45">
-        <v>6.17416631587135</v>
+        <v>2.96249478135221</v>
       </c>
       <c r="D45">
-        <v>33.6884053400019</v>
+        <v>14.624181946118499</v>
       </c>
       <c r="E45">
-        <v>0.75368083708056</v>
+        <v>0.93989950037561798</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -2137,77 +2146,77 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>25.8507396955949</v>
+        <v>26.6925535569316</v>
       </c>
       <c r="C46">
-        <v>6.2697092383156701</v>
+        <v>7.26458096695898</v>
       </c>
       <c r="D46">
-        <v>34.069685478072003</v>
+        <v>34.530835475109001</v>
       </c>
       <c r="E46">
-        <v>0.74807368113099704</v>
+        <v>0.63716555734976399</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>25.946656187493499</v>
+        <v>14.7530899447277</v>
       </c>
       <c r="C47">
-        <v>6.4624395813320197</v>
+        <v>3.8584700800377698</v>
       </c>
       <c r="D47">
-        <v>33.772511989293001</v>
+        <v>19.876204090983201</v>
       </c>
       <c r="E47">
-        <v>0.75244937833832704</v>
+        <v>0.88725666833944306</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>26.947453958067602</v>
+        <v>17.645738898335001</v>
       </c>
       <c r="C48">
-        <v>6.4720200453758299</v>
+        <v>4.9096577888575901</v>
       </c>
       <c r="D48">
-        <v>35.7498119355336</v>
+        <v>23.185593268371299</v>
       </c>
       <c r="E48">
-        <v>0.722045990581342</v>
+        <v>0.84893239464844195</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
         <v>9</v>
@@ -2215,48 +2224,48 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B49">
-        <v>27.178027175928101</v>
+        <v>26.743743362916099</v>
       </c>
       <c r="C49">
-        <v>6.5215161803615702</v>
+        <v>7.5345403323745996</v>
       </c>
       <c r="D49">
-        <v>35.867424636235803</v>
+        <v>35.889163736125603</v>
       </c>
       <c r="E49">
-        <v>0.72021410981885903</v>
+        <v>0.60805871548356005</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>27.351307843007699</v>
+        <v>19.4551018300543</v>
       </c>
       <c r="C50">
-        <v>6.6304487327416801</v>
+        <v>5.3806424244778697</v>
       </c>
       <c r="D50">
-        <v>35.694698204991099</v>
+        <v>25.8560071914997</v>
       </c>
       <c r="E50">
-        <v>0.72346842893244301</v>
+        <v>0.80921383019557602</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2265,27 +2274,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>27.393168598532601</v>
+        <v>19.9734971335583</v>
       </c>
       <c r="C51">
-        <v>6.6951765603596698</v>
+        <v>5.6195686618557197</v>
       </c>
       <c r="D51">
-        <v>35.912993051431499</v>
+        <v>26.547629918698998</v>
       </c>
       <c r="E51">
-        <v>0.72007576808617202</v>
+        <v>0.80194471825802605</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
@@ -2293,77 +2302,77 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B52">
-        <v>27.626642711467198</v>
+        <v>26.832039959668698</v>
       </c>
       <c r="C52">
-        <v>6.7615868163127102</v>
+        <v>7.4612335155921201</v>
       </c>
       <c r="D52">
-        <v>36.083730539861499</v>
+        <v>35.531929736527701</v>
       </c>
       <c r="E52">
-        <v>0.71682932110905895</v>
+        <v>0.61582250253726101</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>28.373476185775399</v>
+        <v>21.1988895544626</v>
       </c>
       <c r="C53">
-        <v>6.95477224936465</v>
+        <v>5.93294231127323</v>
       </c>
       <c r="D53">
-        <v>36.883580811661602</v>
+        <v>28.220010890535701</v>
       </c>
       <c r="E53">
-        <v>0.70474079414132995</v>
+        <v>0.77273198250641395</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>28.433735469083299</v>
+        <v>17.449441941892399</v>
       </c>
       <c r="C54">
-        <v>6.8628441775669602</v>
+        <v>4.8435582941335404</v>
       </c>
       <c r="D54">
-        <v>37.437269769645503</v>
+        <v>23.2924691948431</v>
       </c>
       <c r="E54">
-        <v>0.69518680871868999</v>
+        <v>0.84753646726485299</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -2371,77 +2380,77 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B55">
-        <v>28.673962898272201</v>
+        <v>26.834639665064699</v>
       </c>
       <c r="C55">
-        <v>6.8814076612295496</v>
+        <v>7.2891333918878596</v>
       </c>
       <c r="D55">
-        <v>37.458974623619298</v>
+        <v>35.275145100438003</v>
       </c>
       <c r="E55">
-        <v>0.69483326564832204</v>
+        <v>0.62135523949084104</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>29.403621357089001</v>
+        <v>19.5199549794491</v>
       </c>
       <c r="C56">
-        <v>7.1762566884184604</v>
+        <v>5.3886916055756702</v>
       </c>
       <c r="D56">
-        <v>38.421018910753297</v>
+        <v>26.317680084449901</v>
       </c>
       <c r="E56">
-        <v>0.679612880218043</v>
+        <v>0.80233982468435305</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>29.4323250890873</v>
+        <v>16.167433886020302</v>
       </c>
       <c r="C57">
-        <v>7.12725561239637</v>
+        <v>4.5241301082310796</v>
       </c>
       <c r="D57">
-        <v>38.303467012730202</v>
+        <v>21.558462963970101</v>
       </c>
       <c r="E57">
-        <v>0.68091852479931503</v>
+        <v>0.86939178105751103</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H57" t="s">
         <v>9</v>
@@ -2449,45 +2458,45 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>30.222657533572601</v>
+        <v>27.442100463197399</v>
       </c>
       <c r="C58">
-        <v>7.2978300176675601</v>
+        <v>7.5005331432725404</v>
       </c>
       <c r="D58">
-        <v>39.441336765356098</v>
+        <v>35.468107170369002</v>
       </c>
       <c r="E58">
-        <v>0.66167922134156798</v>
+        <v>0.61720138475406805</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>31.267789277409801</v>
+        <v>17.7344585377102</v>
       </c>
       <c r="C59">
-        <v>7.16503364828288</v>
+        <v>4.9223733160401899</v>
       </c>
       <c r="D59">
-        <v>42.003668700189699</v>
+        <v>23.638956313099801</v>
       </c>
       <c r="E59">
-        <v>0.61198035234130899</v>
+        <v>0.840529423017781</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -2499,27 +2508,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>31.373133729640099</v>
+        <v>17.018781033713498</v>
       </c>
       <c r="C60">
-        <v>7.1856842584654297</v>
+        <v>4.9254322301650904</v>
       </c>
       <c r="D60">
-        <v>41.915580553694099</v>
+        <v>24.1572802619566</v>
       </c>
       <c r="E60">
-        <v>0.61360611943922405</v>
+        <v>0.83600485367357502</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -2527,77 +2536,77 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>31.509859135869998</v>
+        <v>27.4748337711593</v>
       </c>
       <c r="C61">
-        <v>7.2893303147534798</v>
+        <v>7.6034306285506199</v>
       </c>
       <c r="D61">
-        <v>42.132485087950698</v>
+        <v>35.927858825448901</v>
       </c>
       <c r="E61">
-        <v>0.60959675419185899</v>
+        <v>0.60721309093252696</v>
       </c>
       <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>18.941574458458199</v>
+      </c>
+      <c r="C62">
+        <v>5.4093550878698498</v>
+      </c>
+      <c r="D62">
+        <v>26.382962656163802</v>
+      </c>
+      <c r="E62">
+        <v>0.80135799278985798</v>
+      </c>
+      <c r="F62" t="s">
         <v>17</v>
       </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
-        <v>86</v>
-      </c>
-      <c r="B62">
-        <v>31.661074141876199</v>
-      </c>
-      <c r="C62">
-        <v>7.3217423821177903</v>
-      </c>
-      <c r="D62">
-        <v>42.242142807910298</v>
-      </c>
-      <c r="E62">
-        <v>0.60756191379730995</v>
-      </c>
-      <c r="F62" t="s">
-        <v>18</v>
-      </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>31.843325978127901</v>
+        <v>22.422317666727999</v>
       </c>
       <c r="C63">
-        <v>7.3576604864602597</v>
+        <v>6.4455307613574702</v>
       </c>
       <c r="D63">
-        <v>42.214126126537899</v>
+        <v>30.487058849978201</v>
       </c>
       <c r="E63">
-        <v>0.60808230248920703</v>
+        <v>0.73880432753223302</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" t="s">
         <v>9</v>
@@ -2605,77 +2614,77 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B64">
-        <v>32.115051652291697</v>
+        <v>27.548553269783302</v>
       </c>
       <c r="C64">
-        <v>7.4163392556777001</v>
+        <v>7.32924851506918</v>
       </c>
       <c r="D64">
-        <v>42.812633790138698</v>
+        <v>32.058974885081703</v>
       </c>
       <c r="E64">
-        <v>0.59689038205918299</v>
+        <v>0.68725268022063202</v>
       </c>
       <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>23.2866028059656</v>
+      </c>
+      <c r="C65">
+        <v>6.6633326755609001</v>
+      </c>
+      <c r="D65">
+        <v>31.641349854159401</v>
+      </c>
+      <c r="E65">
+        <v>0.71428438587489795</v>
+      </c>
+      <c r="F65" t="s">
         <v>17</v>
       </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
-        <v>53</v>
-      </c>
-      <c r="B65">
-        <v>32.152321711583497</v>
-      </c>
-      <c r="C65">
-        <v>7.4210660649365199</v>
-      </c>
-      <c r="D65">
-        <v>42.351069449342802</v>
-      </c>
-      <c r="E65">
-        <v>0.60553540311170495</v>
-      </c>
-      <c r="F65" t="s">
-        <v>16</v>
-      </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>32.281670067698499</v>
+        <v>20.337128572852901</v>
       </c>
       <c r="C66">
-        <v>7.4234155742682404</v>
+        <v>5.6668809225189296</v>
       </c>
       <c r="D66">
-        <v>43.003124359994302</v>
+        <v>26.9921935481009</v>
       </c>
       <c r="E66">
-        <v>0.59329520906412303</v>
+        <v>0.79525595564006202</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
         <v>9</v>
@@ -2683,77 +2692,77 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B67">
-        <v>32.402299219902503</v>
+        <v>27.8020071296758</v>
       </c>
       <c r="C67">
-        <v>7.48485321091849</v>
+        <v>7.5692248513442104</v>
       </c>
       <c r="D67">
-        <v>42.942193224831897</v>
+        <v>35.9575435808175</v>
       </c>
       <c r="E67">
-        <v>0.594446912753815</v>
+        <v>0.60656375637525295</v>
       </c>
       <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>21.876442704729101</v>
+      </c>
+      <c r="C68">
+        <v>6.0733220775651198</v>
+      </c>
+      <c r="D68">
+        <v>29.256574987387001</v>
+      </c>
+      <c r="E68">
+        <v>0.75572954862047403</v>
+      </c>
+      <c r="F68" t="s">
         <v>17</v>
       </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
-        <v>77</v>
-      </c>
-      <c r="B68">
-        <v>32.414230865542201</v>
-      </c>
-      <c r="C68">
-        <v>7.4527741148154796</v>
-      </c>
-      <c r="D68">
-        <v>42.9101822771703</v>
-      </c>
-      <c r="E68">
-        <v>0.59505132063122002</v>
-      </c>
-      <c r="F68" t="s">
-        <v>18</v>
-      </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>32.487177097261103</v>
+        <v>17.552215149496298</v>
       </c>
       <c r="C69">
-        <v>7.5287439485451397</v>
+        <v>4.8921686510021596</v>
       </c>
       <c r="D69">
-        <v>42.3011450894804</v>
+        <v>22.957992724379899</v>
       </c>
       <c r="E69">
-        <v>0.60646486181226</v>
+        <v>0.85188373677537599</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
         <v>9</v>
@@ -2761,77 +2770,77 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>32.522752873325999</v>
+        <v>28.0111027363929</v>
       </c>
       <c r="C70">
-        <v>7.4495156075243001</v>
+        <v>7.6971388591008401</v>
       </c>
       <c r="D70">
-        <v>42.5047887878914</v>
+        <v>36.497212181470701</v>
       </c>
       <c r="E70">
-        <v>0.60266667357103698</v>
+        <v>0.59466536140954196</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>32.537109879336498</v>
+        <v>19.2110264571816</v>
       </c>
       <c r="C71">
-        <v>7.3531217517027896</v>
+        <v>5.3198330605735098</v>
       </c>
       <c r="D71">
-        <v>42.523907590647902</v>
+        <v>25.374050213425299</v>
       </c>
       <c r="E71">
-        <v>0.60230914933963597</v>
+        <v>0.81626006456829803</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>32.596002951285897</v>
+        <v>18.361017348287</v>
       </c>
       <c r="C72">
-        <v>7.53351464639612</v>
+        <v>5.2104618598062604</v>
       </c>
       <c r="D72">
-        <v>42.997366888885097</v>
+        <v>24.499225375613999</v>
       </c>
       <c r="E72">
-        <v>0.59340410507420405</v>
+        <v>0.83132930871781296</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
@@ -2839,77 +2848,77 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B73">
-        <v>32.995007732368897</v>
+        <v>28.033699232233602</v>
       </c>
       <c r="C73">
-        <v>7.66343496339376</v>
+        <v>7.6990866977498902</v>
       </c>
       <c r="D73">
-        <v>43.018724408343701</v>
+        <v>36.951614982439501</v>
       </c>
       <c r="E73">
-        <v>0.59300007863811599</v>
+        <v>0.58450941971253401</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>33.2324222628081</v>
+        <v>20.291034425908201</v>
       </c>
       <c r="C74">
-        <v>7.5379187756432602</v>
+        <v>5.7077972596651803</v>
       </c>
       <c r="D74">
-        <v>43.274905782554399</v>
+        <v>27.323596663103501</v>
       </c>
       <c r="E74">
-        <v>0.58813818382762895</v>
+        <v>0.78694108981268096</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>33.498802239506702</v>
+        <v>15.6100219092852</v>
       </c>
       <c r="C75">
-        <v>7.78412333466395</v>
+        <v>4.3705372865446703</v>
       </c>
       <c r="D75">
-        <v>43.2827500585311</v>
+        <v>20.573483017549702</v>
       </c>
       <c r="E75">
-        <v>0.58798885707553405</v>
+        <v>0.88105380225089402</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
         <v>9</v>
@@ -2917,77 +2926,77 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B76">
-        <v>33.667720702334698</v>
+        <v>28.359882390872801</v>
       </c>
       <c r="C76">
-        <v>7.8171890645232098</v>
+        <v>7.4423712747800197</v>
       </c>
       <c r="D76">
-        <v>43.522221818457901</v>
+        <v>33.464169718661402</v>
       </c>
       <c r="E76">
-        <v>0.583417152326828</v>
+        <v>0.65923542344883201</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H76" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>33.840857070135797</v>
+        <v>17.351276303735901</v>
       </c>
       <c r="C77">
-        <v>7.6400622837448298</v>
+        <v>4.8167511464553101</v>
       </c>
       <c r="D77">
-        <v>43.722462608528403</v>
+        <v>22.952953548841801</v>
       </c>
       <c r="E77">
-        <v>0.57957503348098405</v>
+        <v>0.84965079880296901</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>33.913987230216897</v>
+        <v>18.828902707019601</v>
       </c>
       <c r="C78">
-        <v>7.8444935820716903</v>
+        <v>5.3658883475292196</v>
       </c>
       <c r="D78">
-        <v>44.1305132192632</v>
+        <v>25.623811140358299</v>
       </c>
       <c r="E78">
-        <v>0.571690976084689</v>
+        <v>0.81548895504325103</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
         <v>9</v>
@@ -2995,77 +3004,77 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B79">
-        <v>33.9645831193302</v>
+        <v>28.4644786113431</v>
       </c>
       <c r="C79">
-        <v>7.8852433751810302</v>
+        <v>7.9401472709796099</v>
       </c>
       <c r="D79">
-        <v>43.811276852919697</v>
+        <v>37.974877545077398</v>
       </c>
       <c r="E79">
-        <v>0.57786526472912203</v>
+        <v>0.56117930780612602</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>33.9647544445343</v>
+        <v>19.841115786582598</v>
       </c>
       <c r="C80">
-        <v>7.61476647692899</v>
+        <v>5.6206590598117696</v>
       </c>
       <c r="D80">
-        <v>43.923995758805098</v>
+        <v>26.952311771162901</v>
       </c>
       <c r="E80">
-        <v>0.57569030979464297</v>
+        <v>0.79269202334525002</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>16.847846776640701</v>
+      </c>
+      <c r="C81">
+        <v>4.6938362672695204</v>
+      </c>
+      <c r="D81">
+        <v>22.534631042228</v>
+      </c>
+      <c r="E81">
+        <v>0.85729610645462695</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
         <v>11</v>
-      </c>
-      <c r="H80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81">
-        <v>65</v>
-      </c>
-      <c r="B81">
-        <v>34.1908560170219</v>
-      </c>
-      <c r="C81">
-        <v>7.6522202913338599</v>
-      </c>
-      <c r="D81">
-        <v>44.273815972517198</v>
-      </c>
-      <c r="E81">
-        <v>0.56890480785418895</v>
-      </c>
-      <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>12</v>
       </c>
       <c r="H81" t="s">
         <v>9</v>
@@ -3073,77 +3082,77 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>34.346588807362203</v>
+        <v>28.466303088142102</v>
       </c>
       <c r="C82">
-        <v>7.9581757562354696</v>
+        <v>7.9312476777432304</v>
       </c>
       <c r="D82">
-        <v>44.134428557520899</v>
+        <v>37.739672087207801</v>
       </c>
       <c r="E82">
-        <v>0.57161497202413303</v>
+        <v>0.56659833178258601</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>34.436687558072002</v>
+        <v>18.8452053543255</v>
       </c>
       <c r="C83">
-        <v>7.9366086350137897</v>
+        <v>5.2128956921931904</v>
       </c>
       <c r="D83">
-        <v>44.639857894277199</v>
+        <v>25.595211453294699</v>
       </c>
       <c r="E83">
-        <v>0.56174702283432099</v>
+        <v>0.81304313666315398</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H83" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>34.646108802191002</v>
+        <v>22.4688517059909</v>
       </c>
       <c r="C84">
-        <v>8.0288552056923894</v>
+        <v>6.3016710424111801</v>
       </c>
       <c r="D84">
-        <v>44.8777417791188</v>
+        <v>29.6822638727953</v>
       </c>
       <c r="E84">
-        <v>0.55706371484831796</v>
+        <v>0.75241235882408697</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
@@ -3154,16 +3163,16 @@
         <v>2</v>
       </c>
       <c r="B85">
-        <v>34.8091033865445</v>
+        <v>28.6482308660743</v>
       </c>
       <c r="C85">
-        <v>8.0285643001440601</v>
+        <v>8.00121172817407</v>
       </c>
       <c r="D85">
-        <v>45.226521002994303</v>
+        <v>37.822210087490902</v>
       </c>
       <c r="E85">
-        <v>0.55015216868872696</v>
+        <v>0.56470052915387403</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
@@ -3175,24 +3184,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>34.981068314283597</v>
+        <v>23.341489356726399</v>
       </c>
       <c r="C86">
-        <v>7.9130571965115797</v>
+        <v>6.5335835370473596</v>
       </c>
       <c r="D86">
-        <v>45.0662144901085</v>
+        <v>30.940798907780401</v>
       </c>
       <c r="E86">
-        <v>0.55333551029757999</v>
+        <v>0.72679602369485696</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
@@ -3201,27 +3210,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>35.491412325843498</v>
+        <v>19.638547882950402</v>
       </c>
       <c r="C87">
-        <v>8.7469708859942603</v>
+        <v>5.56445658395831</v>
       </c>
       <c r="D87">
-        <v>45.722836861737697</v>
+        <v>26.4348452485238</v>
       </c>
       <c r="E87">
-        <v>0.54626359190132001</v>
+        <v>0.80362397552392795</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
         <v>9</v>
@@ -3229,74 +3238,74 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>35.840171041036903</v>
+        <v>29.2577869487714</v>
       </c>
       <c r="C88">
-        <v>8.7489545308259302</v>
+        <v>7.7984495681372596</v>
       </c>
       <c r="D88">
-        <v>46.047662756263698</v>
+        <v>36.244791344302001</v>
       </c>
       <c r="E88">
-        <v>0.53885170934912696</v>
+        <v>0.600252697492624</v>
       </c>
       <c r="F88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>20.975675845296902</v>
+      </c>
+      <c r="C89">
+        <v>5.8927525794586098</v>
+      </c>
+      <c r="D89">
+        <v>27.8996798622664</v>
+      </c>
+      <c r="E89">
+        <v>0.77786222916876102</v>
+      </c>
+      <c r="F89" t="s">
         <v>18</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89">
-        <v>16</v>
-      </c>
-      <c r="B89">
-        <v>36.028565611056997</v>
-      </c>
-      <c r="C89">
-        <v>8.8876556893242995</v>
-      </c>
-      <c r="D89">
-        <v>46.146451194885003</v>
-      </c>
-      <c r="E89">
-        <v>0.53781706267275897</v>
-      </c>
-      <c r="F89" t="s">
-        <v>7</v>
-      </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>11.291904124149699</v>
+      </c>
+      <c r="C90">
+        <v>2.9510446054802202</v>
+      </c>
+      <c r="D90">
+        <v>14.036052064103799</v>
+      </c>
+      <c r="E90">
+        <v>0.94463633144778003</v>
+      </c>
+      <c r="F90" t="s">
         <v>18</v>
-      </c>
-      <c r="B90">
-        <v>36.461622524393498</v>
-      </c>
-      <c r="C90">
-        <v>8.9012347699335308</v>
-      </c>
-      <c r="D90">
-        <v>46.5262332242105</v>
-      </c>
-      <c r="E90">
-        <v>0.52921652880887105</v>
-      </c>
-      <c r="F90" t="s">
-        <v>7</v>
       </c>
       <c r="G90" t="s">
         <v>14</v>
@@ -3307,48 +3316,48 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>37.235205901810403</v>
+        <v>30.218070525085</v>
       </c>
       <c r="C91">
-        <v>8.75688911015264</v>
+        <v>7.89238448242227</v>
       </c>
       <c r="D91">
-        <v>47.324676267594697</v>
+        <v>34.893326276123503</v>
       </c>
       <c r="E91">
-        <v>0.50744518170939601</v>
+        <v>0.62950779351672104</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>38.193850177739698</v>
+        <v>15.077137404336799</v>
       </c>
       <c r="C92">
-        <v>8.9555510923704507</v>
+        <v>3.9393125808686298</v>
       </c>
       <c r="D92">
-        <v>48.015331495685402</v>
+        <v>20.027916760347001</v>
       </c>
       <c r="E92">
-        <v>0.49296360814189799</v>
+        <v>0.88552898730295804</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
@@ -3358,19 +3367,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H92" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:H92" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H91">
+      <sortCondition ref="B1:B92"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(A1,3)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(A1,3)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(A1,3)=2</formula>
     </cfRule>
   </conditionalFormatting>
